--- a/public/student_template.xlsx
+++ b/public/student_template.xlsx
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一年一班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>210202201210018213</t>
   </si>
   <si>
@@ -165,6 +161,10 @@
   </si>
   <si>
     <t>看见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级一班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +518,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -565,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -576,13 +576,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -590,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -604,13 +604,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -618,13 +618,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -632,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -646,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -660,13 +660,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -674,13 +674,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -688,13 +688,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -702,13 +702,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -716,13 +716,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -730,13 +730,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -744,13 +744,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -758,13 +758,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -772,13 +772,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -786,13 +786,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -800,13 +800,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
